--- a/Code/Results/Cases/Case_5_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_125/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.59344051497325</v>
+        <v>16.90532904932639</v>
       </c>
       <c r="C2">
-        <v>14.34048571357268</v>
+        <v>10.58136980179555</v>
       </c>
       <c r="D2">
-        <v>4.427529725214254</v>
+        <v>4.729078971557712</v>
       </c>
       <c r="E2">
-        <v>6.414274978475949</v>
+        <v>11.24430392303668</v>
       </c>
       <c r="F2">
-        <v>17.41666371723427</v>
+        <v>23.43303130976396</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>11.81703133627741</v>
+        <v>20.96508356542164</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.449498338589241</v>
+        <v>9.841459993918596</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.55272487361378</v>
+        <v>20.96543010837515</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.95607415446191</v>
+        <v>16.20083200353825</v>
       </c>
       <c r="C3">
-        <v>13.63287363884357</v>
+        <v>10.26389082591426</v>
       </c>
       <c r="D3">
-        <v>4.288637517108636</v>
+        <v>4.684323851078094</v>
       </c>
       <c r="E3">
-        <v>6.517295731112038</v>
+        <v>11.29889216155078</v>
       </c>
       <c r="F3">
-        <v>16.98424737630246</v>
+        <v>23.48647448217672</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>12.1479206118544</v>
+        <v>21.12187738033679</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.168384523955221</v>
+        <v>9.807471450699266</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.48176620070529</v>
+        <v>21.06552567470003</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.89110871012764</v>
+        <v>15.75268506530987</v>
       </c>
       <c r="C4">
-        <v>13.17958685538537</v>
+        <v>10.06300304160428</v>
       </c>
       <c r="D4">
-        <v>4.201020849485015</v>
+        <v>4.65648703907255</v>
       </c>
       <c r="E4">
-        <v>6.585352928846704</v>
+        <v>11.3345345646507</v>
       </c>
       <c r="F4">
-        <v>16.73904363077741</v>
+        <v>23.52808438401473</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>12.36656518490329</v>
+        <v>21.22394490102202</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.993775586953586</v>
+        <v>9.788220897778785</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.45875692072128</v>
+        <v>21.13363487981578</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.44205379009146</v>
+        <v>15.56637990378482</v>
       </c>
       <c r="C5">
-        <v>12.99027817335282</v>
+        <v>9.979733876691393</v>
       </c>
       <c r="D5">
-        <v>4.164763564749356</v>
+        <v>4.645060004190038</v>
       </c>
       <c r="E5">
-        <v>6.614254799241702</v>
+        <v>11.34959383497555</v>
       </c>
       <c r="F5">
-        <v>16.64424513379895</v>
+        <v>23.54724161465516</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>12.45932648826699</v>
+        <v>21.26699470959756</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.922216140147699</v>
+        <v>9.780788611670523</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.4543267298527</v>
+        <v>21.1630541671847</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.36657588690273</v>
+        <v>15.53522923935286</v>
       </c>
       <c r="C6">
-        <v>12.95857097745981</v>
+        <v>9.965825018623327</v>
       </c>
       <c r="D6">
-        <v>4.158710766666534</v>
+        <v>4.643157711752322</v>
       </c>
       <c r="E6">
-        <v>6.61912338827257</v>
+        <v>11.3521267207185</v>
       </c>
       <c r="F6">
-        <v>16.6288134325305</v>
+        <v>23.55055524329716</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>12.47494441993129</v>
+        <v>21.27423104176459</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.910312382639964</v>
+        <v>9.779579550104538</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.45388306172197</v>
+        <v>21.16803949636353</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.88511373360107</v>
+        <v>15.7501870600402</v>
       </c>
       <c r="C7">
-        <v>13.17705215483271</v>
+        <v>10.06188560973205</v>
       </c>
       <c r="D7">
-        <v>4.200534060824937</v>
+        <v>4.656333258840135</v>
       </c>
       <c r="E7">
-        <v>6.585738030015905</v>
+        <v>11.33473549376834</v>
       </c>
       <c r="F7">
-        <v>16.73774439218115</v>
+        <v>23.52833384922659</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>12.36780165251075</v>
+        <v>21.22451958969515</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.992812012413838</v>
+        <v>9.788118986372355</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.45867745110132</v>
+        <v>21.13402491090545</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.04119912849744</v>
+        <v>16.66578540602326</v>
       </c>
       <c r="C8">
-        <v>14.10048017424581</v>
+        <v>10.47319138236834</v>
       </c>
       <c r="D8">
-        <v>4.380144305163237</v>
+        <v>4.713725355616287</v>
       </c>
       <c r="E8">
-        <v>6.448775011840828</v>
+        <v>11.2626851131501</v>
       </c>
       <c r="F8">
-        <v>17.26337196412884</v>
+        <v>23.44962683290585</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>11.92776197099976</v>
+        <v>21.0179426817926</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.35304244812588</v>
+        <v>9.829408220528132</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.52386094869098</v>
+        <v>20.99855806804045</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.80016869027205</v>
+        <v>18.32871560163888</v>
       </c>
       <c r="C9">
-        <v>15.75729908047181</v>
+        <v>11.22888965123323</v>
       </c>
       <c r="D9">
-        <v>4.712481281866491</v>
+        <v>4.823159012711181</v>
       </c>
       <c r="E9">
-        <v>6.22025787838388</v>
+        <v>11.13823946873638</v>
       </c>
       <c r="F9">
-        <v>18.45327497968538</v>
+        <v>23.36549886483291</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>11.19966773427584</v>
+        <v>20.65887061883354</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.039742779961781</v>
+        <v>9.922960637898019</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.8240041101634</v>
+        <v>20.7860239323911</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.28161607485031</v>
+        <v>19.45960672573077</v>
       </c>
       <c r="C10">
-        <v>16.87592194416181</v>
+        <v>11.7487709134345</v>
       </c>
       <c r="D10">
-        <v>4.942990262995969</v>
+        <v>4.901295433160203</v>
       </c>
       <c r="E10">
-        <v>6.07982047808742</v>
+        <v>11.05705609475013</v>
       </c>
       <c r="F10">
-        <v>19.42089915183956</v>
+        <v>23.34699124613472</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>10.76640255158666</v>
+        <v>20.42317635572225</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.52792678512321</v>
+        <v>9.998994957977905</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.16078359513351</v>
+        <v>20.66272354443374</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.35094320073866</v>
+        <v>19.95269727419245</v>
       </c>
       <c r="C11">
-        <v>17.36278637142613</v>
+        <v>11.97683905555691</v>
       </c>
       <c r="D11">
-        <v>5.044632261655404</v>
+        <v>4.936274066616118</v>
       </c>
       <c r="E11">
-        <v>6.022655586129792</v>
+        <v>11.02234437297453</v>
       </c>
       <c r="F11">
-        <v>19.88045476954279</v>
+        <v>23.34804994690534</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>10.59655300057221</v>
+        <v>20.32207362663503</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.74577423506412</v>
+        <v>10.03508375501266</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.34122708353058</v>
+        <v>20.61385969187142</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.74742507529384</v>
+        <v>20.13623565170902</v>
       </c>
       <c r="C12">
-        <v>17.54395517421406</v>
+        <v>12.06193542354989</v>
       </c>
       <c r="D12">
-        <v>5.082641544357351</v>
+        <v>4.949431923421529</v>
       </c>
       <c r="E12">
-        <v>6.002046741010666</v>
+        <v>11.00951880747878</v>
       </c>
       <c r="F12">
-        <v>20.05718627068724</v>
+        <v>23.34981750186159</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>10.53665531396783</v>
+        <v>20.28466989770161</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.827615178447129</v>
+        <v>10.04895753269616</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.4136082839162</v>
+        <v>20.59640288224698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.66240964243487</v>
+        <v>20.09685061905299</v>
       </c>
       <c r="C13">
-        <v>17.50507974865856</v>
+        <v>12.04366562360662</v>
       </c>
       <c r="D13">
-        <v>5.074477176587646</v>
+        <v>4.946602148411904</v>
       </c>
       <c r="E13">
-        <v>6.00643783064023</v>
+        <v>11.0122668354231</v>
       </c>
       <c r="F13">
-        <v>20.01900471436459</v>
+        <v>23.34937600292963</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>10.54935012164076</v>
+        <v>20.29268620941865</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.810018924387721</v>
+        <v>10.04596045842639</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.39783759021507</v>
+        <v>20.60011583799427</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.3837307101232</v>
+        <v>19.96786149169693</v>
       </c>
       <c r="C14">
-        <v>17.37775542960421</v>
+        <v>11.98386569843761</v>
       </c>
       <c r="D14">
-        <v>5.04776902499414</v>
+        <v>4.937358367026802</v>
       </c>
       <c r="E14">
-        <v>6.02093883994187</v>
+        <v>11.02128281290904</v>
       </c>
       <c r="F14">
-        <v>19.8949407304513</v>
+        <v>23.34816795939204</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>10.59153350004792</v>
+        <v>20.31897871569378</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.752520650416763</v>
+        <v>10.03622104280522</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.34710003766471</v>
+        <v>20.61240248529738</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.21193472989423</v>
+        <v>19.88843417511356</v>
       </c>
       <c r="C15">
-        <v>17.29934865054289</v>
+        <v>11.94706981723133</v>
       </c>
       <c r="D15">
-        <v>5.03134648599876</v>
+        <v>4.931684663476476</v>
       </c>
       <c r="E15">
-        <v>6.029958587388667</v>
+        <v>11.02684690206282</v>
       </c>
       <c r="F15">
-        <v>19.8192983889884</v>
+        <v>23.34760605911153</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>10.61796364467341</v>
+        <v>20.33519852529252</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.717215076225354</v>
+        <v>10.03028217919816</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.31655305159813</v>
+        <v>20.62006497075814</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.21054480855537</v>
+        <v>19.4269422568432</v>
       </c>
       <c r="C16">
-        <v>16.84365838093015</v>
+        <v>11.73369158361973</v>
       </c>
       <c r="D16">
-        <v>4.936281393083924</v>
+        <v>4.898997557000823</v>
       </c>
       <c r="E16">
-        <v>6.08369756189925</v>
+        <v>11.05936923201921</v>
       </c>
       <c r="F16">
-        <v>19.39124914639032</v>
+        <v>23.3471131333948</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>10.77809253252462</v>
+        <v>20.42990690922025</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.513600756018587</v>
+        <v>9.99666598348993</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.14955123917489</v>
+        <v>20.66606298994536</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.58106043475329</v>
+        <v>19.13827556553996</v>
       </c>
       <c r="C17">
-        <v>16.55844427254387</v>
+        <v>11.60059029852836</v>
       </c>
       <c r="D17">
-        <v>4.877124377055913</v>
+        <v>4.878795505108116</v>
       </c>
       <c r="E17">
-        <v>6.118435002960608</v>
+        <v>11.07988890312782</v>
       </c>
       <c r="F17">
-        <v>19.13355984260778</v>
+        <v>23.34924142666565</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>10.88364414665048</v>
+        <v>20.48957536882259</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.387571414525688</v>
+        <v>9.976422217531237</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.05417959567822</v>
+        <v>20.69613767597863</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.21339101596142</v>
+        <v>18.97023740928921</v>
       </c>
       <c r="C18">
-        <v>16.39232662776619</v>
+        <v>11.52324357080211</v>
       </c>
       <c r="D18">
-        <v>4.84279681489738</v>
+        <v>4.86712291689512</v>
       </c>
       <c r="E18">
-        <v>6.139042949933797</v>
+        <v>11.09190014139592</v>
       </c>
       <c r="F18">
-        <v>18.98717223760101</v>
+        <v>23.35135754760685</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>10.94688544248548</v>
+        <v>20.5244705891447</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.314686561718601</v>
+        <v>9.964920264680845</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.00188165624819</v>
+        <v>20.71411554787159</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.08793835564215</v>
+        <v>18.91300200461406</v>
       </c>
       <c r="C19">
-        <v>16.335727731668</v>
+        <v>11.49692136033844</v>
       </c>
       <c r="D19">
-        <v>4.831122809516109</v>
+        <v>4.86316189051724</v>
       </c>
       <c r="E19">
-        <v>6.146126209537546</v>
+        <v>11.09600281610157</v>
       </c>
       <c r="F19">
-        <v>18.9379244699047</v>
+        <v>23.35222708863803</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>10.96871814334785</v>
+        <v>20.53638428864271</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.289942505003618</v>
+        <v>9.961050481943767</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.98460929021209</v>
+        <v>20.72031904589734</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.64864963303188</v>
+        <v>19.16921298280129</v>
       </c>
       <c r="C20">
-        <v>16.58902031976028</v>
+        <v>11.6148413860413</v>
       </c>
       <c r="D20">
-        <v>4.883453136938002</v>
+        <v>4.88095157003614</v>
       </c>
       <c r="E20">
-        <v>6.114671660291316</v>
+        <v>11.07768293289811</v>
       </c>
       <c r="F20">
-        <v>19.16080266534744</v>
+        <v>23.34892251712627</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>10.87214260967052</v>
+        <v>20.48316398159875</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.401028806195015</v>
+        <v>9.97856259000808</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.06406636624448</v>
+        <v>20.69286576994489</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.46581390340064</v>
+        <v>20.00583596207952</v>
       </c>
       <c r="C21">
-        <v>17.41524060028124</v>
+        <v>12.00146521764904</v>
       </c>
       <c r="D21">
-        <v>5.055627018071139</v>
+        <v>4.940075922607199</v>
       </c>
       <c r="E21">
-        <v>6.016650757468032</v>
+        <v>11.01862594443466</v>
       </c>
       <c r="F21">
-        <v>19.9313084284152</v>
+        <v>23.34848567885327</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>10.57901895057523</v>
+        <v>20.31123202197094</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.769427321741459</v>
+        <v>10.03907617288775</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.36189196642558</v>
+        <v>20.60876512686871</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.60424072263307</v>
+        <v>20.53401616561882</v>
       </c>
       <c r="C22">
-        <v>17.93658800517015</v>
+        <v>12.24673314597931</v>
       </c>
       <c r="D22">
-        <v>5.165346791056977</v>
+        <v>4.978202524179983</v>
       </c>
       <c r="E22">
-        <v>5.958678506010602</v>
+        <v>10.98188820513257</v>
       </c>
       <c r="F22">
-        <v>20.45063199450648</v>
+        <v>23.35616663698141</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>10.41348688306063</v>
+        <v>20.20400482268751</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.006376150187689</v>
+        <v>10.07983219591619</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.58020055027063</v>
+        <v>20.55990586128394</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.00110589578014</v>
+        <v>20.25385145608353</v>
       </c>
       <c r="C23">
-        <v>17.66004734603574</v>
+        <v>12.11652427415695</v>
       </c>
       <c r="D23">
-        <v>5.107049055212838</v>
+        <v>4.957902797976518</v>
       </c>
       <c r="E23">
-        <v>5.989036610765385</v>
+        <v>11.00132571099462</v>
       </c>
       <c r="F23">
-        <v>20.1720413872357</v>
+        <v>23.35133741793375</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>10.49927062047765</v>
+        <v>20.26076287480625</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.880273961930696</v>
+        <v>10.057972236207</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.46148063715823</v>
+        <v>20.58542183686688</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.618110538196</v>
+        <v>19.15523264591534</v>
       </c>
       <c r="C24">
-        <v>16.57520356509016</v>
+        <v>11.60840103487054</v>
       </c>
       <c r="D24">
-        <v>4.880592891870346</v>
+        <v>4.879976993739223</v>
       </c>
       <c r="E24">
-        <v>6.116371088968921</v>
+        <v>11.07867958479492</v>
       </c>
       <c r="F24">
-        <v>19.14848069265999</v>
+        <v>23.34906391621479</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>10.87733452346231</v>
+        <v>20.48606072886177</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.394946051843331</v>
+        <v>9.977594501959382</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.05958867950404</v>
+        <v>20.69434285758994</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.8329141082546</v>
+        <v>17.89417387060793</v>
       </c>
       <c r="C25">
-        <v>15.32614409487941</v>
+        <v>11.0303738606398</v>
       </c>
       <c r="D25">
-        <v>4.624875797306753</v>
+        <v>4.793925753461072</v>
       </c>
       <c r="E25">
-        <v>6.277494856644552</v>
+        <v>11.17010434038269</v>
       </c>
       <c r="F25">
-        <v>18.11466553214804</v>
+        <v>23.38068381269725</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>11.3803615185968</v>
+        <v>20.75107646186859</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.856569754644151</v>
+        <v>9.896341693515613</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.72312861047622</v>
+        <v>20.8377845566254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_125/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.90532904932639</v>
+        <v>24.59344051497329</v>
       </c>
       <c r="C2">
-        <v>10.58136980179555</v>
+        <v>14.34048571357263</v>
       </c>
       <c r="D2">
-        <v>4.729078971557712</v>
+        <v>4.427529725214146</v>
       </c>
       <c r="E2">
-        <v>11.24430392303668</v>
+        <v>6.41427497847584</v>
       </c>
       <c r="F2">
-        <v>23.43303130976396</v>
+        <v>17.41666371723424</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>20.96508356542164</v>
+        <v>11.81703133627734</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.841459993918596</v>
+        <v>7.449498338589152</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.96543010837515</v>
+        <v>13.5527248736137</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.20083200353825</v>
+        <v>22.95607415446199</v>
       </c>
       <c r="C3">
-        <v>10.26389082591426</v>
+        <v>13.6328736388436</v>
       </c>
       <c r="D3">
-        <v>4.684323851078094</v>
+        <v>4.288637517108702</v>
       </c>
       <c r="E3">
-        <v>11.29889216155078</v>
+        <v>6.517295731112224</v>
       </c>
       <c r="F3">
-        <v>23.48647448217672</v>
+        <v>16.98424737630221</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>21.12187738033679</v>
+        <v>12.14792061185407</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.807471450699266</v>
+        <v>7.168384523955251</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.06552567470003</v>
+        <v>13.481766200705</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.75268506530987</v>
+        <v>21.89110871012764</v>
       </c>
       <c r="C4">
-        <v>10.06300304160428</v>
+        <v>13.17958685538535</v>
       </c>
       <c r="D4">
-        <v>4.65648703907255</v>
+        <v>4.201020849484899</v>
       </c>
       <c r="E4">
-        <v>11.3345345646507</v>
+        <v>6.585352928846831</v>
       </c>
       <c r="F4">
-        <v>23.52808438401473</v>
+        <v>16.73904363077751</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>21.22394490102202</v>
+        <v>12.36656518490332</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.788220897778785</v>
+        <v>6.993775586953626</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.13363487981578</v>
+        <v>13.45875692072132</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.56637990378482</v>
+        <v>21.44205379009151</v>
       </c>
       <c r="C5">
-        <v>9.979733876691393</v>
+        <v>12.9902781733528</v>
       </c>
       <c r="D5">
-        <v>4.645060004190038</v>
+        <v>4.164763564749504</v>
       </c>
       <c r="E5">
-        <v>11.34959383497555</v>
+        <v>6.614254799241648</v>
       </c>
       <c r="F5">
-        <v>23.54724161465516</v>
+        <v>16.64424513379888</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>21.26699470959756</v>
+        <v>12.45932648826686</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.780788611670523</v>
+        <v>6.92221614014768</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.1630541671847</v>
+        <v>13.45432672985266</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.53522923935286</v>
+        <v>21.36657588690277</v>
       </c>
       <c r="C6">
-        <v>9.965825018623327</v>
+        <v>12.95857097745971</v>
       </c>
       <c r="D6">
-        <v>4.643157711752322</v>
+        <v>4.158710766666665</v>
       </c>
       <c r="E6">
-        <v>11.3521267207185</v>
+        <v>6.619123388272572</v>
       </c>
       <c r="F6">
-        <v>23.55055524329716</v>
+        <v>16.62881343253044</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>21.27423104176459</v>
+        <v>12.47494441993121</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.779579550104538</v>
+        <v>6.910312382639992</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.16803949636353</v>
+        <v>13.45388306172197</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.7501870600402</v>
+        <v>21.88511373360116</v>
       </c>
       <c r="C7">
-        <v>10.06188560973205</v>
+        <v>13.17705215483261</v>
       </c>
       <c r="D7">
-        <v>4.656333258840135</v>
+        <v>4.200534060824937</v>
       </c>
       <c r="E7">
-        <v>11.33473549376834</v>
+        <v>6.585738030016018</v>
       </c>
       <c r="F7">
-        <v>23.52833384922659</v>
+        <v>16.73774439218124</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>21.22451958969515</v>
+        <v>12.36780165251076</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.788118986372355</v>
+        <v>6.992812012413897</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.13402491090545</v>
+        <v>13.45867745110135</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.66578540602326</v>
+        <v>24.04119912849747</v>
       </c>
       <c r="C8">
-        <v>10.47319138236834</v>
+        <v>14.10048017424565</v>
       </c>
       <c r="D8">
-        <v>4.713725355616287</v>
+        <v>4.380144305163207</v>
       </c>
       <c r="E8">
-        <v>11.2626851131501</v>
+        <v>6.448775011840822</v>
       </c>
       <c r="F8">
-        <v>23.44962683290585</v>
+        <v>17.26337196412894</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>21.0179426817926</v>
+        <v>11.92776197099983</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.829408220528132</v>
+        <v>7.353042448125911</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.99855806804045</v>
+        <v>13.52386094869107</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.32871560163888</v>
+        <v>27.80016869027205</v>
       </c>
       <c r="C9">
-        <v>11.22888965123323</v>
+        <v>15.75729908047187</v>
       </c>
       <c r="D9">
-        <v>4.823159012711181</v>
+        <v>4.712481281866472</v>
       </c>
       <c r="E9">
-        <v>11.13823946873638</v>
+        <v>6.220257878383997</v>
       </c>
       <c r="F9">
-        <v>23.36549886483291</v>
+        <v>18.45327497968538</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>20.65887061883354</v>
+        <v>11.19966773427582</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.922960637898019</v>
+        <v>8.039742779961799</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.7860239323911</v>
+        <v>13.8240041101634</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.45960672573077</v>
+        <v>30.28161607485029</v>
       </c>
       <c r="C10">
-        <v>11.7487709134345</v>
+        <v>16.87592194416197</v>
       </c>
       <c r="D10">
-        <v>4.901295433160203</v>
+        <v>4.942990262995971</v>
       </c>
       <c r="E10">
-        <v>11.05705609475013</v>
+        <v>6.079820478087536</v>
       </c>
       <c r="F10">
-        <v>23.34699124613472</v>
+        <v>19.42089915183959</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>20.42317635572225</v>
+        <v>10.76640255158672</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.998994957977905</v>
+        <v>8.527926785123197</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.66272354443374</v>
+        <v>14.16078359513351</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.95269727419245</v>
+        <v>31.35094320073869</v>
       </c>
       <c r="C11">
-        <v>11.97683905555691</v>
+        <v>17.36278637142595</v>
       </c>
       <c r="D11">
-        <v>4.936274066616118</v>
+        <v>5.044632261655431</v>
       </c>
       <c r="E11">
-        <v>11.02234437297453</v>
+        <v>6.022655586129752</v>
       </c>
       <c r="F11">
-        <v>23.34804994690534</v>
+        <v>19.88045476954284</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>20.32207362663503</v>
+        <v>10.59655300057221</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.03508375501266</v>
+        <v>8.745774235064143</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.61385969187142</v>
+        <v>14.34122708353064</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.13623565170902</v>
+        <v>31.74742507529382</v>
       </c>
       <c r="C12">
-        <v>12.06193542354989</v>
+        <v>17.54395517421401</v>
       </c>
       <c r="D12">
-        <v>4.949431923421529</v>
+        <v>5.08264154435737</v>
       </c>
       <c r="E12">
-        <v>11.00951880747878</v>
+        <v>6.002046741010682</v>
       </c>
       <c r="F12">
-        <v>23.34981750186159</v>
+        <v>20.05718627068727</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>20.28466989770161</v>
+        <v>10.53665531396784</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.04895753269616</v>
+        <v>8.827615178447132</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.59640288224698</v>
+        <v>14.41360828391623</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.09685061905299</v>
+        <v>31.6624096424349</v>
       </c>
       <c r="C13">
-        <v>12.04366562360662</v>
+        <v>17.50507974865851</v>
       </c>
       <c r="D13">
-        <v>4.946602148411904</v>
+        <v>5.07447717658764</v>
       </c>
       <c r="E13">
-        <v>11.0122668354231</v>
+        <v>6.00643783064013</v>
       </c>
       <c r="F13">
-        <v>23.34937600292963</v>
+        <v>20.01900471436457</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>20.29268620941865</v>
+        <v>10.5493501216407</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.04596045842639</v>
+        <v>8.810018924387721</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.60011583799427</v>
+        <v>14.39783759021506</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.96786149169693</v>
+        <v>31.38373071012317</v>
       </c>
       <c r="C14">
-        <v>11.98386569843761</v>
+        <v>17.37775542960412</v>
       </c>
       <c r="D14">
-        <v>4.937358367026802</v>
+        <v>5.047769024994155</v>
       </c>
       <c r="E14">
-        <v>11.02128281290904</v>
+        <v>6.020938839941817</v>
       </c>
       <c r="F14">
-        <v>23.34816795939204</v>
+        <v>19.8949407304513</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>20.31897871569378</v>
+        <v>10.59153350004792</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.03622104280522</v>
+        <v>8.752520650416756</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.61240248529738</v>
+        <v>14.34710003766472</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.88843417511356</v>
+        <v>31.21193472989428</v>
       </c>
       <c r="C15">
-        <v>11.94706981723133</v>
+        <v>17.29934865054286</v>
       </c>
       <c r="D15">
-        <v>4.931684663476476</v>
+        <v>5.031346485998863</v>
       </c>
       <c r="E15">
-        <v>11.02684690206282</v>
+        <v>6.029958587388628</v>
       </c>
       <c r="F15">
-        <v>23.34760605911153</v>
+        <v>19.81929838898839</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>20.33519852529252</v>
+        <v>10.61796364467344</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.03028217919816</v>
+        <v>8.717215076225319</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.62006497075814</v>
+        <v>14.31655305159815</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.4269422568432</v>
+        <v>30.21054480855538</v>
       </c>
       <c r="C16">
-        <v>11.73369158361973</v>
+        <v>16.84365838093015</v>
       </c>
       <c r="D16">
-        <v>4.898997557000823</v>
+        <v>4.936281393083952</v>
       </c>
       <c r="E16">
-        <v>11.05936923201921</v>
+        <v>6.083697561899312</v>
       </c>
       <c r="F16">
-        <v>23.3471131333948</v>
+        <v>19.39124914639041</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>20.42990690922025</v>
+        <v>10.77809253252476</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.99666598348993</v>
+        <v>8.513600756018585</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.66606298994536</v>
+        <v>14.14955123917498</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.13827556553996</v>
+        <v>29.58106043475325</v>
       </c>
       <c r="C17">
-        <v>11.60059029852836</v>
+        <v>16.55844427254387</v>
       </c>
       <c r="D17">
-        <v>4.878795505108116</v>
+        <v>4.877124377055979</v>
       </c>
       <c r="E17">
-        <v>11.07988890312782</v>
+        <v>6.118435002960662</v>
       </c>
       <c r="F17">
-        <v>23.34924142666565</v>
+        <v>19.13355984260774</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>20.48957536882259</v>
+        <v>10.88364414665053</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.976422217531237</v>
+        <v>8.387571414525702</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.69613767597863</v>
+        <v>14.05417959567825</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.97023740928921</v>
+        <v>29.21339101596138</v>
       </c>
       <c r="C18">
-        <v>11.52324357080211</v>
+        <v>16.39232662776622</v>
       </c>
       <c r="D18">
-        <v>4.86712291689512</v>
+        <v>4.842796814897502</v>
       </c>
       <c r="E18">
-        <v>11.09190014139592</v>
+        <v>6.139042949933796</v>
       </c>
       <c r="F18">
-        <v>23.35135754760685</v>
+        <v>18.98717223760104</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>20.5244705891447</v>
+        <v>10.9468854424856</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.964920264680845</v>
+        <v>8.314686561718576</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.71411554787159</v>
+        <v>14.00188165624829</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.91300200461406</v>
+        <v>29.08793835564211</v>
       </c>
       <c r="C19">
-        <v>11.49692136033844</v>
+        <v>16.33572773166813</v>
       </c>
       <c r="D19">
-        <v>4.86316189051724</v>
+        <v>4.831122809516202</v>
       </c>
       <c r="E19">
-        <v>11.09600281610157</v>
+        <v>6.146126209537606</v>
       </c>
       <c r="F19">
-        <v>23.35222708863803</v>
+        <v>18.93792446990471</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>20.53638428864271</v>
+        <v>10.96871814334798</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.961050481943767</v>
+        <v>8.289942505003625</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.72031904589734</v>
+        <v>13.98460929021216</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.16921298280129</v>
+        <v>29.6486496330319</v>
       </c>
       <c r="C20">
-        <v>11.6148413860413</v>
+        <v>16.58902031976043</v>
       </c>
       <c r="D20">
-        <v>4.88095157003614</v>
+        <v>4.883453136938164</v>
       </c>
       <c r="E20">
-        <v>11.07768293289811</v>
+        <v>6.114671660291322</v>
       </c>
       <c r="F20">
-        <v>23.34892251712627</v>
+        <v>19.1608026653474</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>20.48316398159875</v>
+        <v>10.87214260967049</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.97856259000808</v>
+        <v>8.401028806194995</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.69286576994489</v>
+        <v>14.06406636624448</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.00583596207952</v>
+        <v>31.46581390340076</v>
       </c>
       <c r="C21">
-        <v>12.00146521764904</v>
+        <v>17.41524060028124</v>
       </c>
       <c r="D21">
-        <v>4.940075922607199</v>
+        <v>5.055627018071091</v>
       </c>
       <c r="E21">
-        <v>11.01862594443466</v>
+        <v>6.016650757468096</v>
       </c>
       <c r="F21">
-        <v>23.34848567885327</v>
+        <v>19.93130842841509</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>20.31123202197094</v>
+        <v>10.57901895057493</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.03907617288775</v>
+        <v>8.769427321741471</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.60876512686871</v>
+        <v>14.36189196642546</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.53401616561882</v>
+        <v>32.60424072263306</v>
       </c>
       <c r="C22">
-        <v>12.24673314597931</v>
+        <v>17.93658800517025</v>
       </c>
       <c r="D22">
-        <v>4.978202524179983</v>
+        <v>5.165346791056978</v>
       </c>
       <c r="E22">
-        <v>10.98188820513257</v>
+        <v>5.958678506010653</v>
       </c>
       <c r="F22">
-        <v>23.35616663698141</v>
+        <v>20.45063199450656</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>20.20400482268751</v>
+        <v>10.41348688306073</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.07983219591619</v>
+        <v>9.006376150187677</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.55990586128394</v>
+        <v>14.58020055027069</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.25385145608353</v>
+        <v>32.00110589578016</v>
       </c>
       <c r="C23">
-        <v>12.11652427415695</v>
+        <v>17.66004734603548</v>
       </c>
       <c r="D23">
-        <v>4.957902797976518</v>
+        <v>5.107049055212899</v>
       </c>
       <c r="E23">
-        <v>11.00132571099462</v>
+        <v>5.989036610765339</v>
       </c>
       <c r="F23">
-        <v>23.35133741793375</v>
+        <v>20.1720413872357</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>20.26076287480625</v>
+        <v>10.49927062047755</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.057972236207</v>
+        <v>8.880273961930694</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.58542183686688</v>
+        <v>14.46148063715824</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.15523264591534</v>
+        <v>29.61811053819602</v>
       </c>
       <c r="C24">
-        <v>11.60840103487054</v>
+        <v>16.57520356509014</v>
       </c>
       <c r="D24">
-        <v>4.879976993739223</v>
+        <v>4.880592891870353</v>
       </c>
       <c r="E24">
-        <v>11.07867958479492</v>
+        <v>6.11637108896887</v>
       </c>
       <c r="F24">
-        <v>23.34906391621479</v>
+        <v>19.14848069266002</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>20.48606072886177</v>
+        <v>10.87733452346232</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.977594501959382</v>
+        <v>8.394946051843313</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.69434285758994</v>
+        <v>14.05958867950404</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.89417387060793</v>
+        <v>26.83291410825461</v>
       </c>
       <c r="C25">
-        <v>11.0303738606398</v>
+        <v>15.32614409487953</v>
       </c>
       <c r="D25">
-        <v>4.793925753461072</v>
+        <v>4.624875797306849</v>
       </c>
       <c r="E25">
-        <v>11.17010434038269</v>
+        <v>6.277494856644489</v>
       </c>
       <c r="F25">
-        <v>23.38068381269725</v>
+        <v>18.11466553214806</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>20.75107646186859</v>
+        <v>11.38036151859686</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.896341693515613</v>
+        <v>7.85656975464412</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.8377845566254</v>
+        <v>13.72312861047627</v>
       </c>
     </row>
   </sheetData>
